--- a/Excel-XLSX/UN-SIN.xlsx
+++ b/Excel-XLSX/UN-SIN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,205 @@
     <t>1</t>
   </si>
   <si>
-    <t>6VL85g</t>
+    <t>Tc5Ll0</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>SGP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>INS</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Rep. of)</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>MYA</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>1978</t>
@@ -105,28 +303,148 @@
     <t>VNM</t>
   </si>
   <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>SIN</t>
-  </si>
-  <si>
-    <t>SGP</t>
-  </si>
-  <si>
     <t>730</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>XXA</t>
+  </si>
+  <si>
+    <t>1303</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>1979</t>
@@ -141,10 +459,13 @@
     <t>UKN</t>
   </si>
   <si>
+    <t>UNK</t>
+  </si>
+  <si>
     <t>900</t>
   </si>
   <si>
-    <t>3</t>
+    <t>41</t>
   </si>
   <si>
     <t>1981</t>
@@ -153,91 +474,22 @@
     <t>6140</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>42</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Rep. of)</t>
-  </si>
-  <si>
-    <t>IRN</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
   </si>
   <si>
     <t>146</t>
   </si>
   <si>
-    <t>15</t>
+    <t>45</t>
   </si>
   <si>
     <t>1991</t>
@@ -246,244 +498,13 @@
     <t>166</t>
   </si>
   <si>
-    <t>16</t>
+    <t>46</t>
   </si>
   <si>
     <t>1992</t>
   </si>
   <si>
     <t>115</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>LBR</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>LKA</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>MYA</t>
-  </si>
-  <si>
-    <t>MMR</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>SOM</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>INS</t>
-  </si>
-  <si>
-    <t>IDN</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>CHN</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Stateless</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>XXA</t>
-  </si>
-  <si>
-    <t>1303</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>1109</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>2022</t>
   </si>
 </sst>
 </file>
@@ -868,7 +889,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -991,25 +1012,25 @@
         <v>34</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>34</v>
+      <c r="V2" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -1038,7 +1059,7 @@
         <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>29</v>
@@ -1053,31 +1074,31 @@
         <v>32</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>34</v>
+      <c r="V3" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -1097,16 +1118,16 @@
         <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -1121,31 +1142,31 @@
         <v>32</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>34</v>
+      <c r="V4" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -1159,22 +1180,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>29</v>
@@ -1189,31 +1210,31 @@
         <v>32</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>34</v>
+      <c r="V5" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -1227,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>29</v>
@@ -1257,31 +1278,31 @@
         <v>32</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>34</v>
+      <c r="V6" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -1295,22 +1316,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>29</v>
@@ -1325,31 +1346,31 @@
         <v>32</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>34</v>
+      <c r="V7" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -1363,22 +1384,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>29</v>
@@ -1393,31 +1414,31 @@
         <v>32</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>34</v>
+      <c r="V8" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -1434,19 +1455,19 @@
         <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>29</v>
@@ -1464,28 +1485,28 @@
         <v>34</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>34</v>
+      <c r="V9" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -1502,19 +1523,19 @@
         <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>29</v>
@@ -1529,31 +1550,31 @@
         <v>32</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>34</v>
+      <c r="V10" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -1570,19 +1591,19 @@
         <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>29</v>
@@ -1597,31 +1618,31 @@
         <v>32</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>34</v>
+      <c r="V11" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -1638,19 +1659,19 @@
         <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>29</v>
@@ -1665,31 +1686,31 @@
         <v>32</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>34</v>
+      <c r="V12" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -1703,22 +1724,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>29</v>
@@ -1733,31 +1754,31 @@
         <v>32</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>34</v>
+      <c r="V13" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -1771,23 +1792,23 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="J14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1801,31 +1822,31 @@
         <v>32</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>34</v>
+      <c r="V14" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15">
@@ -1839,22 +1860,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>29</v>
@@ -1869,31 +1890,31 @@
         <v>32</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>34</v>
+      <c r="V15" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -1907,22 +1928,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>29</v>
@@ -1937,31 +1958,31 @@
         <v>32</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V16" s="2" t="s">
-        <v>34</v>
+      <c r="V16" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17">
@@ -1975,22 +1996,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>29</v>
@@ -2005,31 +2026,31 @@
         <v>32</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V17" s="2" t="s">
-        <v>34</v>
+      <c r="V17" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -2046,19 +2067,19 @@
         <v>79</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>29</v>
@@ -2073,31 +2094,31 @@
         <v>32</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>34</v>
+      <c r="V18" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -2111,22 +2132,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>29</v>
@@ -2141,31 +2162,31 @@
         <v>32</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>34</v>
+      <c r="V19" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20">
@@ -2179,22 +2200,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>29</v>
@@ -2209,31 +2230,31 @@
         <v>32</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>34</v>
+      <c r="V20" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -2247,22 +2268,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>29</v>
@@ -2280,28 +2301,28 @@
         <v>34</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V21" s="2" t="s">
-        <v>34</v>
+      <c r="V21" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22">
@@ -2315,22 +2336,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>29</v>
@@ -2345,31 +2366,31 @@
         <v>32</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V22" s="2" t="s">
-        <v>34</v>
+      <c r="V22" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23">
@@ -2383,61 +2404,61 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="O23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V23" s="2" t="s">
-        <v>34</v>
+      <c r="V23" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24">
@@ -2451,61 +2472,61 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="O24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V24" s="2" t="s">
-        <v>34</v>
+      <c r="V24" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25">
@@ -2522,19 +2543,19 @@
         <v>102</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>29</v>
@@ -2549,31 +2570,31 @@
         <v>32</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V25" s="2" t="s">
-        <v>34</v>
+      <c r="V25" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26">
@@ -2587,22 +2608,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>29</v>
@@ -2617,31 +2638,31 @@
         <v>32</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V26" s="2" t="s">
-        <v>34</v>
+      <c r="V26" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27">
@@ -2655,61 +2676,61 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="O27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V27" s="2" t="s">
-        <v>34</v>
+      <c r="V27" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28">
@@ -2723,22 +2744,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>29</v>
@@ -2753,31 +2774,31 @@
         <v>32</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V28" s="2" t="s">
-        <v>34</v>
+      <c r="V28" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2812,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>29</v>
@@ -2821,31 +2842,31 @@
         <v>32</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V29" s="2" t="s">
-        <v>34</v>
+      <c r="V29" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="30">
@@ -2859,61 +2880,61 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="O30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V30" s="2" t="s">
-        <v>34</v>
+      <c r="V30" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -2927,22 +2948,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>29</v>
@@ -2960,28 +2981,28 @@
         <v>34</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V31" s="2" t="s">
-        <v>34</v>
+      <c r="V31" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -2995,22 +3016,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>29</v>
@@ -3028,28 +3049,28 @@
         <v>34</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V32" s="2" t="s">
-        <v>34</v>
+      <c r="V32" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -3063,22 +3084,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>29</v>
@@ -3096,28 +3117,28 @@
         <v>34</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V33" s="2" t="s">
-        <v>34</v>
+      <c r="V33" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="34">
@@ -3131,22 +3152,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="I34" s="1" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>29</v>
@@ -3161,31 +3182,31 @@
         <v>32</v>
       </c>
       <c r="N34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O34" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="P34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -3199,23 +3220,23 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J35" s="2" t="s">
         <v>29</v>
       </c>
@@ -3229,31 +3250,31 @@
         <v>32</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V35" s="2" t="s">
-        <v>34</v>
+      <c r="V35" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="36">
@@ -3267,61 +3288,61 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S36" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="T36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V36" s="2" t="s">
-        <v>34</v>
+      <c r="V36" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37">
@@ -3335,22 +3356,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>29</v>
@@ -3365,31 +3386,31 @@
         <v>32</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V37" s="2" t="s">
-        <v>34</v>
+      <c r="V37" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="38">
@@ -3403,22 +3424,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>29</v>
@@ -3433,31 +3454,31 @@
         <v>32</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>34</v>
+      <c r="V38" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="39">
@@ -3471,61 +3492,61 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S39" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="T39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -3539,22 +3560,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>29</v>
@@ -3569,31 +3590,31 @@
         <v>32</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -3607,22 +3628,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>29</v>
@@ -3637,31 +3658,31 @@
         <v>32</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V41" s="2" t="s">
-        <v>34</v>
+      <c r="V41" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="42">
@@ -3675,23 +3696,23 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="J42" s="2" t="s">
         <v>29</v>
       </c>
@@ -3705,31 +3726,31 @@
         <v>32</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V42" s="2" t="s">
-        <v>34</v>
+      <c r="V42" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="43">
@@ -3743,22 +3764,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>29</v>
@@ -3773,31 +3794,31 @@
         <v>32</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V43" s="2" t="s">
-        <v>34</v>
+      <c r="V43" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="44">
@@ -3811,22 +3832,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>29</v>
@@ -3841,31 +3862,31 @@
         <v>32</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V44" s="2" t="s">
-        <v>34</v>
+      <c r="V44" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="45">
@@ -3879,61 +3900,197 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H45" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V45" s="2" t="s">
-        <v>34</v>
+      <c r="H46" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-SIN.xlsx
+++ b/Excel-XLSX/UN-SIN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Tc5Ll0</t>
+    <t>7oUfQs</t>
   </si>
   <si>
     <t>2007</t>
@@ -384,121 +384,109 @@
     <t>33</t>
   </si>
   <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>XXA</t>
+  </si>
+  <si>
+    <t>1303</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>2023</t>
   </si>
   <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Stateless</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>XXA</t>
-  </si>
-  <si>
-    <t>1303</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>1109</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>39</t>
   </si>
   <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unknown </t>
-  </si>
-  <si>
-    <t>UKN</t>
-  </si>
-  <si>
-    <t>UNK</t>
-  </si>
-  <si>
-    <t>900</t>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>6140</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>6140</t>
+    <t>50</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>43</t>
   </si>
   <si>
+    <t>146</t>
+  </si>
+  <si>
     <t>44</t>
   </si>
   <si>
-    <t>146</t>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>166</t>
   </si>
   <si>
     <t>45</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>46</t>
   </si>
   <si>
     <t>1992</t>
@@ -889,7 +877,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1029,8 +1017,8 @@
       <c r="U2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>35</v>
+      <c r="V2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -1097,8 +1085,8 @@
       <c r="U3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>35</v>
+      <c r="V3" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1165,8 +1153,8 @@
       <c r="U4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>35</v>
+      <c r="V4" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -1233,8 +1221,8 @@
       <c r="U5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>35</v>
+      <c r="V5" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1301,8 +1289,8 @@
       <c r="U6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>35</v>
+      <c r="V6" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1369,8 +1357,8 @@
       <c r="U7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>35</v>
+      <c r="V7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1437,8 +1425,8 @@
       <c r="U8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>35</v>
+      <c r="V8" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1505,8 +1493,8 @@
       <c r="U9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>35</v>
+      <c r="V9" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1573,8 +1561,8 @@
       <c r="U10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>35</v>
+      <c r="V10" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -1641,8 +1629,8 @@
       <c r="U11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>35</v>
+      <c r="V11" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -1709,8 +1697,8 @@
       <c r="U12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>35</v>
+      <c r="V12" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1777,8 +1765,8 @@
       <c r="U13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>35</v>
+      <c r="V13" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -1845,8 +1833,8 @@
       <c r="U14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>35</v>
+      <c r="V14" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -1913,8 +1901,8 @@
       <c r="U15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>35</v>
+      <c r="V15" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -1981,8 +1969,8 @@
       <c r="U16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>35</v>
+      <c r="V16" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -2049,8 +2037,8 @@
       <c r="U17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>35</v>
+      <c r="V17" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -2117,8 +2105,8 @@
       <c r="U18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>35</v>
+      <c r="V18" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -2185,8 +2173,8 @@
       <c r="U19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>35</v>
+      <c r="V19" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -2253,8 +2241,8 @@
       <c r="U20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>35</v>
+      <c r="V20" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -2321,8 +2309,8 @@
       <c r="U21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>35</v>
+      <c r="V21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -2389,8 +2377,8 @@
       <c r="U22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>35</v>
+      <c r="V22" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -2457,8 +2445,8 @@
       <c r="U23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>35</v>
+      <c r="V23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -2525,8 +2513,8 @@
       <c r="U24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>35</v>
+      <c r="V24" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -2593,8 +2581,8 @@
       <c r="U25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>35</v>
+      <c r="V25" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -2661,8 +2649,8 @@
       <c r="U26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>35</v>
+      <c r="V26" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -2729,8 +2717,8 @@
       <c r="U27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>35</v>
+      <c r="V27" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -2797,8 +2785,8 @@
       <c r="U28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>35</v>
+      <c r="V28" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -2865,8 +2853,8 @@
       <c r="U29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>35</v>
+      <c r="V29" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -2933,8 +2921,8 @@
       <c r="U30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>35</v>
+      <c r="V30" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -3001,8 +2989,8 @@
       <c r="U31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>35</v>
+      <c r="V31" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -3069,8 +3057,8 @@
       <c r="U32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>35</v>
+      <c r="V32" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33">
@@ -3137,8 +3125,8 @@
       <c r="U33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>35</v>
+      <c r="V33" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -3167,7 +3155,7 @@
         <v>125</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>29</v>
@@ -3185,7 +3173,7 @@
         <v>33</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>33</v>
@@ -3197,7 +3185,7 @@
         <v>33</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="T34" s="2" t="s">
         <v>33</v>
@@ -3220,61 +3208,61 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="J35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S35" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="T35" s="2" t="s">
         <v>33</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>35</v>
+      <c r="V35" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -3288,22 +3276,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>29</v>
@@ -3341,8 +3329,8 @@
       <c r="U36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>35</v>
+      <c r="V36" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -3356,22 +3344,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>29</v>
@@ -3401,7 +3389,7 @@
         <v>33</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="T37" s="2" t="s">
         <v>33</v>
@@ -3409,8 +3397,8 @@
       <c r="U37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>35</v>
+      <c r="V37" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -3427,19 +3415,19 @@
         <v>25</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>29</v>
@@ -3469,7 +3457,7 @@
         <v>33</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>33</v>
@@ -3477,8 +3465,8 @@
       <c r="U38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>35</v>
+      <c r="V38" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
@@ -3492,22 +3480,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>29</v>
@@ -3537,7 +3525,7 @@
         <v>33</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="T39" s="2" t="s">
         <v>33</v>
@@ -3560,22 +3548,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>29</v>
@@ -3590,7 +3578,7 @@
         <v>32</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>33</v>
@@ -3605,7 +3593,7 @@
         <v>33</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="T40" s="2" t="s">
         <v>33</v>
@@ -3628,44 +3616,44 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="I41" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P41" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="Q41" s="2" t="s">
         <v>33</v>
       </c>
@@ -3681,8 +3669,8 @@
       <c r="U41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>35</v>
+      <c r="V41" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -3696,44 +3684,44 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P42" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="Q42" s="2" t="s">
         <v>33</v>
       </c>
@@ -3749,8 +3737,8 @@
       <c r="U42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>35</v>
+      <c r="V42" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
@@ -3764,22 +3752,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>29</v>
@@ -3800,7 +3788,7 @@
         <v>33</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>33</v>
@@ -3817,8 +3805,8 @@
       <c r="U43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>35</v>
+      <c r="V43" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
@@ -3832,22 +3820,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>29</v>
@@ -3862,13 +3850,13 @@
         <v>32</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>33</v>
@@ -3885,8 +3873,8 @@
       <c r="U44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>35</v>
+      <c r="V44" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
@@ -3900,38 +3888,38 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N45" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="O45" s="2" t="s">
         <v>33</v>
       </c>
@@ -3953,8 +3941,8 @@
       <c r="U45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>35</v>
+      <c r="V45" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46">
@@ -3968,38 +3956,38 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N46" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="O46" s="2" t="s">
         <v>33</v>
       </c>
@@ -4021,76 +4009,8 @@
       <c r="U46" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>35</v>
+      <c r="V46" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-SIN.xlsx
+++ b/Excel-XLSX/UN-SIN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -90,6 +90,312 @@
     <t>7oUfQs</t>
   </si>
   <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>SRV</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>SGP</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>6140</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Rep. of)</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>MYA</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>INS</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>2007</t>
   </si>
   <si>
@@ -105,283 +411,37 @@
     <t>CHN</t>
   </si>
   <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>SIN</t>
-  </si>
-  <si>
-    <t>SGP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>INS</t>
-  </si>
-  <si>
-    <t>IDN</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Rep. of)</t>
-  </si>
-  <si>
-    <t>IRN</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>LBR</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>LKA</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>MYA</t>
-  </si>
-  <si>
-    <t>MMR</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
   <si>
     <t>2008</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>2009</t>
   </si>
   <si>
-    <t>15</t>
+    <t>38</t>
   </si>
   <si>
     <t>2010</t>
   </si>
   <si>
-    <t>16</t>
+    <t>39</t>
   </si>
   <si>
     <t>2014</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>SOM</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>SRV</t>
-  </si>
-  <si>
-    <t>VNM</t>
-  </si>
-  <si>
-    <t>730</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>33</t>
+    <t>40</t>
   </si>
   <si>
     <t>2018</t>
@@ -402,13 +462,13 @@
     <t>1303</t>
   </si>
   <si>
-    <t>34</t>
+    <t>41</t>
   </si>
   <si>
     <t>2019</t>
   </si>
   <si>
-    <t>35</t>
+    <t>42</t>
   </si>
   <si>
     <t>2020</t>
@@ -417,82 +477,28 @@
     <t>1109</t>
   </si>
   <si>
-    <t>36</t>
+    <t>43</t>
   </si>
   <si>
     <t>2021</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
     <t>2022</t>
   </si>
   <si>
-    <t>38</t>
+    <t>45</t>
   </si>
   <si>
     <t>2023</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unknown </t>
-  </si>
-  <si>
-    <t>UKN</t>
-  </si>
-  <si>
-    <t>UNK</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>6140</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>115</t>
+    <t>46</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -877,7 +883,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1000,25 +1006,25 @@
         <v>34</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -1062,31 +1068,31 @@
         <v>32</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -1100,61 +1106,61 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="Q4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -1168,61 +1174,61 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="O5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1236,22 +1242,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>29</v>
@@ -1266,31 +1272,31 @@
         <v>32</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1304,61 +1310,61 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="O7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1372,22 +1378,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>29</v>
@@ -1402,31 +1408,31 @@
         <v>32</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1440,22 +1446,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>29</v>
@@ -1473,28 +1479,28 @@
         <v>34</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1508,22 +1514,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>29</v>
@@ -1538,31 +1544,31 @@
         <v>32</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1576,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="Q11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -1644,22 +1650,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>29</v>
@@ -1674,31 +1680,31 @@
         <v>32</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -1712,22 +1718,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>29</v>
@@ -1742,31 +1748,31 @@
         <v>32</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -1780,22 +1786,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>29</v>
@@ -1810,31 +1816,31 @@
         <v>32</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -1848,61 +1854,61 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="O15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -1916,61 +1922,61 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="O16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -1990,16 +1996,16 @@
         <v>78</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>29</v>
@@ -2014,31 +2020,31 @@
         <v>32</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -2052,22 +2058,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>29</v>
@@ -2082,31 +2088,31 @@
         <v>32</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -2120,22 +2126,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>29</v>
@@ -2150,31 +2156,31 @@
         <v>32</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -2188,61 +2194,61 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="O20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -2256,22 +2262,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>29</v>
@@ -2289,28 +2295,28 @@
         <v>34</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -2324,22 +2330,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>29</v>
@@ -2354,31 +2360,31 @@
         <v>32</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -2392,22 +2398,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="H23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>29</v>
@@ -2422,31 +2428,31 @@
         <v>32</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -2460,22 +2466,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>29</v>
@@ -2490,31 +2496,31 @@
         <v>32</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -2528,22 +2534,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>29</v>
@@ -2561,28 +2567,28 @@
         <v>104</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -2599,19 +2605,19 @@
         <v>105</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>29</v>
@@ -2626,31 +2632,31 @@
         <v>32</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -2667,58 +2673,58 @@
         <v>107</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="Q27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -2738,16 +2744,16 @@
         <v>110</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>29</v>
@@ -2762,31 +2768,31 @@
         <v>32</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -2806,16 +2812,16 @@
         <v>112</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>29</v>
@@ -2830,31 +2836,31 @@
         <v>32</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -2871,19 +2877,19 @@
         <v>113</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>29</v>
@@ -2898,31 +2904,31 @@
         <v>32</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -2936,22 +2942,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>29</v>
@@ -2969,28 +2975,28 @@
         <v>34</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -3004,22 +3010,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>29</v>
@@ -3037,28 +3043,28 @@
         <v>34</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
@@ -3072,22 +3078,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>29</v>
@@ -3105,28 +3111,28 @@
         <v>34</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -3140,22 +3146,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>29</v>
@@ -3170,31 +3176,31 @@
         <v>32</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -3208,22 +3214,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>29</v>
@@ -3238,31 +3244,31 @@
         <v>32</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -3276,22 +3282,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="I36" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>29</v>
@@ -3306,31 +3312,31 @@
         <v>32</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -3344,22 +3350,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>29</v>
@@ -3374,31 +3380,31 @@
         <v>32</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -3412,22 +3418,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>29</v>
@@ -3442,31 +3448,31 @@
         <v>32</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
@@ -3480,22 +3486,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>29</v>
@@ -3510,31 +3516,31 @@
         <v>32</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -3548,22 +3554,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>29</v>
@@ -3578,31 +3584,31 @@
         <v>32</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
@@ -3616,23 +3622,23 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="I41" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="J41" s="2" t="s">
         <v>29</v>
       </c>
@@ -3646,31 +3652,31 @@
         <v>32</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S41" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="Q41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="T41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
@@ -3687,19 +3693,19 @@
         <v>148</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>29</v>
@@ -3714,31 +3720,31 @@
         <v>32</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>149</v>
+        <v>34</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
@@ -3755,19 +3761,19 @@
         <v>150</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>29</v>
@@ -3782,31 +3788,31 @@
         <v>32</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -3820,22 +3826,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>29</v>
@@ -3850,31 +3856,31 @@
         <v>32</v>
       </c>
       <c r="N44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S44" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="O44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="T44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
@@ -3888,22 +3894,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>29</v>
@@ -3918,31 +3924,31 @@
         <v>32</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
@@ -3956,61 +3962,129 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I46" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V46" s="2" t="s">
-        <v>33</v>
+      <c r="G47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-SIN.xlsx
+++ b/Excel-XLSX/UN-SIN.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>7oUfQs</t>
+    <t>5NMQyl</t>
   </si>
   <si>
     <t>1978</t>
